--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F10-F3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.170435</v>
+        <v>2.460980666666667</v>
       </c>
       <c r="H2">
-        <v>6.511305</v>
+        <v>7.382942000000001</v>
       </c>
       <c r="I2">
-        <v>0.539059135436341</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="J2">
-        <v>0.5390591354363411</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N2">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O2">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P2">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q2">
-        <v>2.977619053021667</v>
+        <v>1.093911648621556</v>
       </c>
       <c r="R2">
-        <v>26.798571477195</v>
+        <v>9.845204837594</v>
       </c>
       <c r="S2">
-        <v>0.01629942173006752</v>
+        <v>0.003236949171028675</v>
       </c>
       <c r="T2">
-        <v>0.01629942173006752</v>
+        <v>0.003236949171028674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.170435</v>
+        <v>2.460980666666667</v>
       </c>
       <c r="H3">
-        <v>6.511305</v>
+        <v>7.382942000000001</v>
       </c>
       <c r="I3">
-        <v>0.539059135436341</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="J3">
-        <v>0.5390591354363411</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>127.904251</v>
       </c>
       <c r="O3">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P3">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q3">
-        <v>92.53595433972833</v>
+        <v>104.9232962984936</v>
       </c>
       <c r="R3">
-        <v>832.8235890575551</v>
+        <v>944.3096666864421</v>
       </c>
       <c r="S3">
-        <v>0.5065397950912859</v>
+        <v>0.3104742301656411</v>
       </c>
       <c r="T3">
-        <v>0.506539795091286</v>
+        <v>0.310474230165641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.170435</v>
+        <v>2.460980666666667</v>
       </c>
       <c r="H4">
-        <v>6.511305</v>
+        <v>7.382942000000001</v>
       </c>
       <c r="I4">
-        <v>0.539059135436341</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="J4">
-        <v>0.5390591354363411</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N4">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O4">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P4">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q4">
-        <v>2.559996972931667</v>
+        <v>2.095453669227334</v>
       </c>
       <c r="R4">
-        <v>23.039972756385</v>
+        <v>18.859083023046</v>
       </c>
       <c r="S4">
-        <v>0.01401336757540081</v>
+        <v>0.006200571157717859</v>
       </c>
       <c r="T4">
-        <v>0.01401336757540081</v>
+        <v>0.006200571157717858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.170435</v>
+        <v>2.460980666666667</v>
       </c>
       <c r="H5">
-        <v>6.511305</v>
+        <v>7.382942000000001</v>
       </c>
       <c r="I5">
-        <v>0.539059135436341</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="J5">
-        <v>0.5390591354363411</v>
+        <v>0.3244396275423151</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N5">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O5">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P5">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q5">
-        <v>0.4030982525483334</v>
+        <v>1.530174613362889</v>
       </c>
       <c r="R5">
-        <v>3.627884272935001</v>
+        <v>13.771571520266</v>
       </c>
       <c r="S5">
-        <v>0.002206551039586843</v>
+        <v>0.004527877047927548</v>
       </c>
       <c r="T5">
-        <v>0.002206551039586844</v>
+        <v>0.004527877047927547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.337095</v>
       </c>
       <c r="I6">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030475</v>
       </c>
       <c r="J6">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030476</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N6">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O6">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P6">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q6">
-        <v>0.154153506045</v>
+        <v>0.049946504685</v>
       </c>
       <c r="R6">
-        <v>1.387381554405</v>
+        <v>0.449518542165</v>
       </c>
       <c r="S6">
-        <v>0.0008438329287442549</v>
+        <v>0.0001477946570361667</v>
       </c>
       <c r="T6">
-        <v>0.0008438329287442549</v>
+        <v>0.0001477946570361667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.337095</v>
       </c>
       <c r="I7">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030475</v>
       </c>
       <c r="J7">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030476</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>127.904251</v>
       </c>
       <c r="O7">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P7">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q7">
         <v>4.790653721205</v>
@@ -883,10 +883,10 @@
         <v>43.115883490845</v>
       </c>
       <c r="S7">
-        <v>0.02622393394662008</v>
+        <v>0.01417582728100624</v>
       </c>
       <c r="T7">
-        <v>0.02622393394662008</v>
+        <v>0.01417582728100624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.337095</v>
       </c>
       <c r="I8">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030475</v>
       </c>
       <c r="J8">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030476</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N8">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O8">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P8">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q8">
-        <v>0.132532906935</v>
+        <v>0.095675538915</v>
       </c>
       <c r="R8">
-        <v>1.192796162415</v>
+        <v>0.8610798502349999</v>
       </c>
       <c r="S8">
-        <v>0.0007254822409378357</v>
+        <v>0.0002831095699263114</v>
       </c>
       <c r="T8">
-        <v>0.0007254822409378358</v>
+        <v>0.0002831095699263114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.337095</v>
       </c>
       <c r="I9">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030475</v>
       </c>
       <c r="J9">
-        <v>0.0279074838699636</v>
+        <v>0.01481346816030476</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N9">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O9">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P9">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q9">
-        <v>0.020868689985</v>
+        <v>0.069865672965</v>
       </c>
       <c r="R9">
-        <v>0.187818209865</v>
+        <v>0.628791056685</v>
       </c>
       <c r="S9">
-        <v>0.0001142347536614437</v>
+        <v>0.0002067366523360384</v>
       </c>
       <c r="T9">
-        <v>0.0001142347536614437</v>
+        <v>0.0002067366523360384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.007823666666666668</v>
+        <v>0.07607999999999999</v>
       </c>
       <c r="H10">
-        <v>0.023471</v>
+        <v>0.22824</v>
       </c>
       <c r="I10">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="J10">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N10">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O10">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P10">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q10">
-        <v>0.01073328569211111</v>
+        <v>0.03381773751999999</v>
       </c>
       <c r="R10">
-        <v>0.09659957122900001</v>
+        <v>0.30435963768</v>
       </c>
       <c r="S10">
-        <v>5.875377169805666E-05</v>
+        <v>0.0001000686824839724</v>
       </c>
       <c r="T10">
-        <v>5.875377169805666E-05</v>
+        <v>0.0001000686824839724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.007823666666666668</v>
+        <v>0.07607999999999999</v>
       </c>
       <c r="H11">
-        <v>0.023471</v>
+        <v>0.22824</v>
       </c>
       <c r="I11">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="J11">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>127.904251</v>
       </c>
       <c r="O11">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P11">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q11">
-        <v>0.3335600750245556</v>
+        <v>3.24365180536</v>
       </c>
       <c r="R11">
-        <v>3.002040675221</v>
+        <v>29.19286624824</v>
       </c>
       <c r="S11">
-        <v>0.001825900573016865</v>
+        <v>0.009598157251270008</v>
       </c>
       <c r="T11">
-        <v>0.001825900573016864</v>
+        <v>0.009598157251270008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.007823666666666668</v>
+        <v>0.07607999999999999</v>
       </c>
       <c r="H12">
-        <v>0.023471</v>
+        <v>0.22824</v>
       </c>
       <c r="I12">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="J12">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N12">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O12">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P12">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q12">
-        <v>0.009227902694111112</v>
+        <v>0.06477991368</v>
       </c>
       <c r="R12">
-        <v>0.08305112424700001</v>
+        <v>0.58301922312</v>
       </c>
       <c r="S12">
-        <v>5.051333801169387E-05</v>
+        <v>0.0001916875902638168</v>
       </c>
       <c r="T12">
-        <v>5.051333801169388E-05</v>
+        <v>0.0001916875902638168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.007823666666666668</v>
+        <v>0.07607999999999999</v>
       </c>
       <c r="H13">
-        <v>0.023471</v>
+        <v>0.22824</v>
       </c>
       <c r="I13">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="J13">
-        <v>0.001943121535210893</v>
+        <v>0.01002989060326601</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N13">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O13">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P13">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q13">
-        <v>0.001453029628555556</v>
+        <v>0.04730459128</v>
       </c>
       <c r="R13">
-        <v>0.013077266657</v>
+        <v>0.42574132152</v>
       </c>
       <c r="S13">
-        <v>7.953852484278161E-06</v>
+        <v>0.0001399770792482161</v>
       </c>
       <c r="T13">
-        <v>7.953852484278159E-06</v>
+        <v>0.0001399770792482161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.735715666666666</v>
+        <v>4.935901333333334</v>
       </c>
       <c r="H14">
-        <v>5.207146999999999</v>
+        <v>14.807704</v>
       </c>
       <c r="I14">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="J14">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.371899666666667</v>
+        <v>0.4445023333333333</v>
       </c>
       <c r="N14">
-        <v>4.115699</v>
+        <v>1.333507</v>
       </c>
       <c r="O14">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258984</v>
       </c>
       <c r="P14">
-        <v>0.03023679715004545</v>
+        <v>0.009977046255258982</v>
       </c>
       <c r="Q14">
-        <v>2.381227744528111</v>
+        <v>2.194019659769778</v>
       </c>
       <c r="R14">
-        <v>21.431049700753</v>
+        <v>19.746176937928</v>
       </c>
       <c r="S14">
-        <v>0.01303478871953562</v>
+        <v>0.006492233744710169</v>
       </c>
       <c r="T14">
-        <v>0.01303478871953562</v>
+        <v>0.006492233744710169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.735715666666666</v>
+        <v>4.935901333333334</v>
       </c>
       <c r="H15">
-        <v>5.207146999999999</v>
+        <v>14.807704</v>
       </c>
       <c r="I15">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="J15">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>127.904251</v>
       </c>
       <c r="O15">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219795</v>
       </c>
       <c r="P15">
-        <v>0.9396738906600065</v>
+        <v>0.9569553279219793</v>
       </c>
       <c r="Q15">
-        <v>74.00180409798855</v>
+        <v>210.4409210166338</v>
       </c>
       <c r="R15">
-        <v>666.0162368818969</v>
+        <v>1893.968289149704</v>
       </c>
       <c r="S15">
-        <v>0.4050842610490837</v>
+        <v>0.6227071132240621</v>
       </c>
       <c r="T15">
-        <v>0.4050842610490837</v>
+        <v>0.622707113224062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.735715666666666</v>
+        <v>4.935901333333334</v>
       </c>
       <c r="H16">
-        <v>5.207146999999999</v>
+        <v>14.807704</v>
       </c>
       <c r="I16">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="J16">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.179485666666667</v>
+        <v>0.851471</v>
       </c>
       <c r="N16">
-        <v>3.538457</v>
+        <v>2.554413</v>
       </c>
       <c r="O16">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="P16">
-        <v>0.02599597456790654</v>
+        <v>0.01911163320180161</v>
       </c>
       <c r="Q16">
-        <v>2.047251750242111</v>
+        <v>4.202776844194667</v>
       </c>
       <c r="R16">
-        <v>18.425265752179</v>
+        <v>37.824991597752</v>
       </c>
       <c r="S16">
-        <v>0.0112066114135562</v>
+        <v>0.01243626488389363</v>
       </c>
       <c r="T16">
-        <v>0.0112066114135562</v>
+        <v>0.01243626488389362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.735715666666666</v>
+        <v>4.935901333333334</v>
       </c>
       <c r="H17">
-        <v>5.207146999999999</v>
+        <v>14.807704</v>
       </c>
       <c r="I17">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="J17">
-        <v>0.4310902591584846</v>
+        <v>0.6507170136941141</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1857223333333334</v>
+        <v>0.6217743333333333</v>
       </c>
       <c r="N17">
-        <v>0.5571670000000001</v>
+        <v>1.865323</v>
       </c>
       <c r="O17">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="P17">
-        <v>0.004093337622041693</v>
+        <v>0.01395599262095996</v>
       </c>
       <c r="Q17">
-        <v>0.3223611636165555</v>
+        <v>3.069016760932445</v>
       </c>
       <c r="R17">
-        <v>2.901250472549</v>
+        <v>27.621150848392</v>
       </c>
       <c r="S17">
-        <v>0.001764597976309129</v>
+        <v>0.009081401841448157</v>
       </c>
       <c r="T17">
-        <v>0.001764597976309129</v>
+        <v>0.009081401841448155</v>
       </c>
     </row>
   </sheetData>
